--- a/Code/Results/Cases/Case_0_109/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_109/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.959190652202733</v>
+        <v>1.007741359813101</v>
       </c>
       <c r="D2">
-        <v>0.9702969901170022</v>
+        <v>1.010450795242707</v>
       </c>
       <c r="E2">
-        <v>0.9710734950917383</v>
+        <v>1.010378232713478</v>
       </c>
       <c r="F2">
-        <v>0.9337421869831368</v>
+        <v>1.005934661921953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9826644575717467</v>
+        <v>1.013011236820697</v>
       </c>
       <c r="K2">
-        <v>0.9821862544187522</v>
+        <v>1.013320948185163</v>
       </c>
       <c r="L2">
-        <v>0.9829510940164066</v>
+        <v>1.013248605009605</v>
       </c>
       <c r="M2">
-        <v>0.9462088703044141</v>
+        <v>1.008818532729725</v>
       </c>
       <c r="N2">
-        <v>0.9978593479126053</v>
+        <v>1.008424484006033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9647732099829412</v>
+        <v>1.008885489017892</v>
       </c>
       <c r="D3">
-        <v>0.9749073082266163</v>
+        <v>1.011447612279555</v>
       </c>
       <c r="E3">
-        <v>0.9755785099217941</v>
+        <v>1.011354631784088</v>
       </c>
       <c r="F3">
-        <v>0.9422973345798211</v>
+        <v>1.007732031210571</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9862725376757457</v>
+        <v>1.013785937500267</v>
       </c>
       <c r="K3">
-        <v>0.9858716522302142</v>
+        <v>1.014121302574718</v>
       </c>
       <c r="L3">
-        <v>0.9865337083722433</v>
+        <v>1.014028582638701</v>
       </c>
       <c r="M3">
-        <v>0.9537259512000398</v>
+        <v>1.010416174298673</v>
       </c>
       <c r="N3">
-        <v>0.9991280977313313</v>
+        <v>1.008689512514675</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9682935633621186</v>
+        <v>1.00962571700567</v>
       </c>
       <c r="D4">
-        <v>0.9778207217452151</v>
+        <v>1.012092817872978</v>
       </c>
       <c r="E4">
-        <v>0.9784262531129019</v>
+        <v>1.01198666391706</v>
       </c>
       <c r="F4">
-        <v>0.9476706989218584</v>
+        <v>1.008894589360257</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9885446313840154</v>
+        <v>1.014286659102448</v>
       </c>
       <c r="K4">
-        <v>0.9881944128956183</v>
+        <v>1.014638783828894</v>
       </c>
       <c r="L4">
-        <v>0.9887922220945576</v>
+        <v>1.014532912232917</v>
       </c>
       <c r="M4">
-        <v>0.9584446052510703</v>
+        <v>1.011449090507858</v>
       </c>
       <c r="N4">
-        <v>0.9999260427328643</v>
+        <v>1.008860573501175</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9697526145388446</v>
+        <v>1.009936887534993</v>
       </c>
       <c r="D5">
-        <v>0.9790296364491028</v>
+        <v>1.012364111420605</v>
       </c>
       <c r="E5">
-        <v>0.9796081156723131</v>
+        <v>1.012252428344766</v>
       </c>
       <c r="F5">
-        <v>0.9498932037126745</v>
+        <v>1.00938322889415</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>0.9894855537792276</v>
+        <v>1.014497029797006</v>
       </c>
       <c r="K5">
-        <v>0.9891567792080806</v>
+        <v>1.014856238440872</v>
       </c>
       <c r="L5">
-        <v>0.9897280894406427</v>
+        <v>1.014744845756573</v>
       </c>
       <c r="M5">
-        <v>0.9603956076270128</v>
+        <v>1.011883130412384</v>
       </c>
       <c r="N5">
-        <v>1.000256225683114</v>
+        <v>1.008932384960895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.969996400307555</v>
+        <v>1.009989133262976</v>
       </c>
       <c r="D6">
-        <v>0.9792317097540025</v>
+        <v>1.012409665728678</v>
       </c>
       <c r="E6">
-        <v>0.9798056784197602</v>
+        <v>1.012297054812176</v>
       </c>
       <c r="F6">
-        <v>0.9502643004811934</v>
+        <v>1.009465268058942</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9896427219967697</v>
+        <v>1.014532344233848</v>
       </c>
       <c r="K6">
-        <v>0.9893175561300372</v>
+        <v>1.014892744532218</v>
       </c>
       <c r="L6">
-        <v>0.9898844461547486</v>
+        <v>1.014780425290233</v>
       </c>
       <c r="M6">
-        <v>0.9607213281430715</v>
+        <v>1.011955996266641</v>
       </c>
       <c r="N6">
-        <v>1.000311362217004</v>
+        <v>1.008944436417451</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9683131400203767</v>
+        <v>1.009629874961979</v>
       </c>
       <c r="D7">
-        <v>0.9778369366991767</v>
+        <v>1.012096442715623</v>
       </c>
       <c r="E7">
-        <v>0.9784421044557</v>
+        <v>1.011990214844175</v>
       </c>
       <c r="F7">
-        <v>0.9477005363558685</v>
+        <v>1.008901118965581</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>0.9885572591850453</v>
+        <v>1.014289470605075</v>
       </c>
       <c r="K7">
-        <v>0.9882073266783613</v>
+        <v>1.014641689837406</v>
       </c>
       <c r="L7">
-        <v>0.9888047798299058</v>
+        <v>1.014535744437633</v>
       </c>
       <c r="M7">
-        <v>0.9584708005811398</v>
+        <v>1.011454890937522</v>
       </c>
       <c r="N7">
-        <v>0.9999304750718272</v>
+        <v>1.008861533451982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9610970313541307</v>
+        <v>1.008128045961338</v>
       </c>
       <c r="D8">
-        <v>0.9718700282898155</v>
+        <v>1.010787634154178</v>
       </c>
       <c r="E8">
-        <v>0.9726104123805591</v>
+        <v>1.010708163237113</v>
       </c>
       <c r="F8">
-        <v>0.936668589737335</v>
+        <v>1.006542192680029</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9838972303049233</v>
+        <v>1.013273167878998</v>
       </c>
       <c r="K8">
-        <v>0.9834450192612334</v>
+        <v>1.013591515823637</v>
       </c>
       <c r="L8">
-        <v>0.9841746352028696</v>
+        <v>1.013512279211208</v>
       </c>
       <c r="M8">
-        <v>0.9487807273933084</v>
+        <v>1.009358647616567</v>
       </c>
       <c r="N8">
-        <v>0.9982930439111812</v>
+        <v>1.008514140949303</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.94762276413975</v>
+        <v>1.005480745576251</v>
       </c>
       <c r="D9">
-        <v>0.9607808404929782</v>
+        <v>1.008482791098277</v>
       </c>
       <c r="E9">
-        <v>0.9617801502694321</v>
+        <v>1.00845077064082</v>
       </c>
       <c r="F9">
-        <v>0.915863570434242</v>
+        <v>1.00238148300482</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9751710508620471</v>
+        <v>1.01147793231855</v>
       </c>
       <c r="K9">
-        <v>0.9745439724687793</v>
+        <v>1.011737826317246</v>
       </c>
       <c r="L9">
-        <v>0.9755253277583186</v>
+        <v>1.011705916681197</v>
       </c>
       <c r="M9">
-        <v>0.9304870844860024</v>
+        <v>1.005657775411462</v>
       </c>
       <c r="N9">
-        <v>0.9952195889190872</v>
+        <v>1.007898677791794</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9380450412811551</v>
+        <v>1.003715114672957</v>
       </c>
       <c r="D10">
-        <v>0.9529387191904896</v>
+        <v>1.006947094622776</v>
       </c>
       <c r="E10">
-        <v>0.9541273115090393</v>
+        <v>1.006946921126703</v>
       </c>
       <c r="F10">
-        <v>0.9008814271599734</v>
+        <v>0.9996043609359114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9689522883560944</v>
+        <v>1.01027805046223</v>
       </c>
       <c r="K10">
-        <v>0.9682130496880889</v>
+        <v>1.010499811863725</v>
       </c>
       <c r="L10">
-        <v>0.9693773338366437</v>
+        <v>1.010499639027784</v>
       </c>
       <c r="M10">
-        <v>0.9173049056248971</v>
+        <v>1.003185244096014</v>
       </c>
       <c r="N10">
-        <v>0.9930257342148965</v>
+        <v>1.007486114562519</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9337347056702925</v>
+        <v>1.002950357702456</v>
       </c>
       <c r="D11">
-        <v>0.9494201247320925</v>
+        <v>1.006282302090868</v>
       </c>
       <c r="E11">
-        <v>0.9506953647809653</v>
+        <v>1.006295971652534</v>
       </c>
       <c r="F11">
-        <v>0.8940782112695228</v>
+        <v>0.998400907678803</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9661499093629644</v>
+        <v>1.009757737288748</v>
       </c>
       <c r="K11">
-        <v>0.9653633860635987</v>
+        <v>1.009963187190324</v>
       </c>
       <c r="L11">
-        <v>0.9666111033978483</v>
+        <v>1.009976802697977</v>
       </c>
       <c r="M11">
-        <v>0.9113182577690504</v>
+        <v>1.002113232761298</v>
       </c>
       <c r="N11">
-        <v>0.992036611816453</v>
+        <v>1.007306929117971</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9321069989904121</v>
+        <v>1.002666255427317</v>
       </c>
       <c r="D12">
-        <v>0.9480931029124351</v>
+        <v>1.006035392536111</v>
       </c>
       <c r="E12">
-        <v>0.9494013049040512</v>
+        <v>1.006054212209226</v>
       </c>
       <c r="F12">
-        <v>0.8914985062753628</v>
+        <v>0.9979537378880736</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9650910976643114</v>
+        <v>1.009564353877718</v>
       </c>
       <c r="K12">
-        <v>0.9642872281257421</v>
+        <v>1.0097637751944</v>
       </c>
       <c r="L12">
-        <v>0.9655666345253097</v>
+        <v>1.009782519401926</v>
       </c>
       <c r="M12">
-        <v>0.9090481965909695</v>
+        <v>1.001714820554971</v>
       </c>
       <c r="N12">
-        <v>0.9916628521051915</v>
+        <v>1.007240289530172</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9324573913083098</v>
+        <v>1.002727198080188</v>
       </c>
       <c r="D13">
-        <v>0.9483786891140903</v>
+        <v>1.006088354423225</v>
       </c>
       <c r="E13">
-        <v>0.9496797842081639</v>
+        <v>1.006106069006355</v>
       </c>
       <c r="F13">
-        <v>0.8920543387149339</v>
+        <v>0.9980496644779331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9653190503606143</v>
+        <v>1.009605840558904</v>
       </c>
       <c r="K13">
-        <v>0.9645188913606163</v>
+        <v>1.009806553656861</v>
       </c>
       <c r="L13">
-        <v>0.9657914676300573</v>
+        <v>1.009824197417062</v>
       </c>
       <c r="M13">
-        <v>0.9095373093759725</v>
+        <v>1.0018002914309</v>
       </c>
       <c r="N13">
-        <v>0.9917433206647626</v>
+        <v>1.007254587674138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9336007160927912</v>
+        <v>1.002926874503961</v>
       </c>
       <c r="D14">
-        <v>0.9493108518282807</v>
+        <v>1.006261891993281</v>
       </c>
       <c r="E14">
-        <v>0.9505888002105976</v>
+        <v>1.006275987096645</v>
       </c>
       <c r="F14">
-        <v>0.8938660799588447</v>
+        <v>0.9983639476905006</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9660627613091112</v>
+        <v>1.009741754533931</v>
       </c>
       <c r="K14">
-        <v>0.9652747995688172</v>
+        <v>1.009946705493141</v>
       </c>
       <c r="L14">
-        <v>0.9665251216867121</v>
+        <v>1.009960744795007</v>
       </c>
       <c r="M14">
-        <v>0.9111315877288398</v>
+        <v>1.002080304423726</v>
       </c>
       <c r="N14">
-        <v>0.9920058493143167</v>
+        <v>1.007301422347768</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9343015551791852</v>
+        <v>1.003049896670781</v>
       </c>
       <c r="D15">
-        <v>0.9498824789238455</v>
+        <v>1.006368817331356</v>
       </c>
       <c r="E15">
-        <v>0.9511462711829577</v>
+        <v>1.006380683444271</v>
       </c>
       <c r="F15">
-        <v>0.8949752018992752</v>
+        <v>0.998557567219246</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9665185710150039</v>
+        <v>1.00982548018888</v>
       </c>
       <c r="K15">
-        <v>0.9657381540387842</v>
+        <v>1.010033046245149</v>
       </c>
       <c r="L15">
-        <v>0.9669748592220757</v>
+        <v>1.010044865666519</v>
       </c>
       <c r="M15">
-        <v>0.9121075874240909</v>
+        <v>1.002252800264956</v>
       </c>
       <c r="N15">
-        <v>0.992166744583647</v>
+        <v>1.007330267834747</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.938327489846653</v>
+        <v>1.003765864002442</v>
       </c>
       <c r="D16">
-        <v>0.9531695156368951</v>
+        <v>1.006991218197981</v>
       </c>
       <c r="E16">
-        <v>0.9543524621827549</v>
+        <v>1.006990127120171</v>
       </c>
       <c r="F16">
-        <v>0.9013258502664987</v>
+        <v>0.9996842092912569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9691358468565366</v>
+        <v>1.010312565802187</v>
       </c>
       <c r="K16">
-        <v>0.9683997753280928</v>
+        <v>1.010535413975112</v>
       </c>
       <c r="L16">
-        <v>0.969558616520717</v>
+        <v>1.010534327037911</v>
       </c>
       <c r="M16">
-        <v>0.9176959802391591</v>
+        <v>1.003256359774522</v>
       </c>
       <c r="N16">
-        <v>0.9930905149176595</v>
+        <v>1.00749799502394</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9408077443701651</v>
+        <v>1.004214908215161</v>
       </c>
       <c r="D17">
-        <v>0.9551974167662667</v>
+        <v>1.007381678918184</v>
       </c>
       <c r="E17">
-        <v>0.9563309542425552</v>
+        <v>1.007372474500553</v>
       </c>
       <c r="F17">
-        <v>0.9052214230511014</v>
+        <v>1.00039066149902</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9707473041151857</v>
+        <v>1.01061789761435</v>
       </c>
       <c r="K17">
-        <v>0.9700394085164711</v>
+        <v>1.01085038555817</v>
       </c>
       <c r="L17">
-        <v>0.9711505808118367</v>
+        <v>1.010841215264662</v>
       </c>
       <c r="M17">
-        <v>0.9211238548506747</v>
+        <v>1.003885486680965</v>
       </c>
       <c r="N17">
-        <v>0.9936591708068372</v>
+        <v>1.007603060116528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9422388547116543</v>
+        <v>1.004476806420504</v>
       </c>
       <c r="D18">
-        <v>0.95636851622486</v>
+        <v>1.007609445004532</v>
       </c>
       <c r="E18">
-        <v>0.9574736810444084</v>
+        <v>1.007595513323928</v>
       </c>
       <c r="F18">
-        <v>0.9074635618004878</v>
+        <v>1.000802633153154</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9716767682885011</v>
+        <v>1.010795919667981</v>
       </c>
       <c r="K18">
-        <v>0.9709854289695605</v>
+        <v>1.011034049629468</v>
       </c>
       <c r="L18">
-        <v>0.9720691996020919</v>
+        <v>1.011020168887485</v>
       </c>
       <c r="M18">
-        <v>0.9230967231808509</v>
+        <v>1.004252312479569</v>
       </c>
       <c r="N18">
-        <v>0.9939871137268477</v>
+        <v>1.007664290470718</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9427242447311178</v>
+        <v>1.004566103363046</v>
       </c>
       <c r="D19">
-        <v>0.9567658846676895</v>
+        <v>1.007687110294921</v>
       </c>
       <c r="E19">
-        <v>0.957861448877547</v>
+        <v>1.007671567600544</v>
       </c>
       <c r="F19">
-        <v>0.9082231172025739</v>
+        <v>1.000943089951269</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9719919554866079</v>
+        <v>1.01085660830383</v>
       </c>
       <c r="K19">
-        <v>0.9713062814002885</v>
+        <v>1.011096665316714</v>
       </c>
       <c r="L19">
-        <v>0.9723807753005871</v>
+        <v>1.011081179180929</v>
       </c>
       <c r="M19">
-        <v>0.9237650422224848</v>
+        <v>1.004377368315579</v>
       </c>
       <c r="N19">
-        <v>0.9940983120132459</v>
+        <v>1.007685159579239</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9405432627534578</v>
+        <v>1.004166732289501</v>
       </c>
       <c r="D20">
-        <v>0.9549810674840635</v>
+        <v>1.007339784441221</v>
       </c>
       <c r="E20">
-        <v>0.9561198593742783</v>
+        <v>1.007331449978018</v>
       </c>
       <c r="F20">
-        <v>0.904806611945201</v>
+        <v>1.000314875259818</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9705755027810984</v>
+        <v>1.010585145950745</v>
       </c>
       <c r="K20">
-        <v>0.969864571415442</v>
+        <v>1.01081659764068</v>
       </c>
       <c r="L20">
-        <v>0.9709808160364928</v>
+        <v>1.010808294154659</v>
       </c>
       <c r="M20">
-        <v>0.9207588531707269</v>
+        <v>1.003818001184111</v>
       </c>
       <c r="N20">
-        <v>0.9935985499302106</v>
+        <v>1.007591793044342</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9332647898930989</v>
+        <v>1.002868075835822</v>
       </c>
       <c r="D21">
-        <v>0.9490369206837102</v>
+        <v>1.006210788859491</v>
       </c>
       <c r="E21">
-        <v>0.9503216631066129</v>
+        <v>1.00622594958189</v>
       </c>
       <c r="F21">
-        <v>0.8933340677721462</v>
+        <v>0.9982714034586954</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9658442629250811</v>
+        <v>1.009701734474589</v>
       </c>
       <c r="K21">
-        <v>0.9650527031713531</v>
+        <v>1.009905436653439</v>
       </c>
       <c r="L21">
-        <v>0.966309558750562</v>
+        <v>1.009920537181223</v>
       </c>
       <c r="M21">
-        <v>0.9106634314589175</v>
+        <v>1.001997853721787</v>
       </c>
       <c r="N21">
-        <v>0.9919287207034911</v>
+        <v>1.007287632975731</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9285330299963148</v>
+        <v>1.002051340423527</v>
       </c>
       <c r="D22">
-        <v>0.945182599948365</v>
+        <v>1.005501082244604</v>
       </c>
       <c r="E22">
-        <v>0.946563647402394</v>
+        <v>1.00553106277097</v>
       </c>
       <c r="F22">
-        <v>0.8858127836509365</v>
+        <v>0.9969856964212369</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9627652351970342</v>
+        <v>1.009145626728355</v>
       </c>
       <c r="K22">
-        <v>0.9619242549243905</v>
+        <v>1.0093320566831</v>
       </c>
       <c r="L22">
-        <v>0.9632735965362845</v>
+        <v>1.009361913377761</v>
       </c>
       <c r="M22">
-        <v>0.9040451121348606</v>
+        <v>1.0008521796193</v>
       </c>
       <c r="N22">
-        <v>0.9908417812516001</v>
+        <v>1.007095919966662</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9310569554725634</v>
+        <v>1.002484329161242</v>
       </c>
       <c r="D23">
-        <v>0.9472375253806931</v>
+        <v>1.005877298825826</v>
       </c>
       <c r="E23">
-        <v>0.9485670622316202</v>
+        <v>1.00589941852797</v>
       </c>
       <c r="F23">
-        <v>0.8898311218561935</v>
+        <v>0.9976673630241029</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9644078958185275</v>
+        <v>1.009440494421733</v>
       </c>
       <c r="K23">
-        <v>0.9635929839387725</v>
+        <v>1.009636064068379</v>
       </c>
       <c r="L23">
-        <v>0.9648928866843621</v>
+        <v>1.009658094284072</v>
       </c>
       <c r="M23">
-        <v>0.9075809699295964</v>
+        <v>1.001459647627042</v>
       </c>
       <c r="N23">
-        <v>0.9914216742640551</v>
+        <v>1.007197595927036</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9406628186002364</v>
+        <v>1.004188500983481</v>
       </c>
       <c r="D24">
-        <v>0.9550788625777388</v>
+        <v>1.00735871469962</v>
       </c>
       <c r="E24">
-        <v>0.9562152788490854</v>
+        <v>1.007349987125685</v>
       </c>
       <c r="F24">
-        <v>0.9049941398075784</v>
+        <v>1.000349120075986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.970653164664827</v>
+        <v>1.010599945242685</v>
       </c>
       <c r="K24">
-        <v>0.9699436046572552</v>
+        <v>1.010831865111529</v>
       </c>
       <c r="L24">
-        <v>0.9710575560726158</v>
+        <v>1.010823169938823</v>
       </c>
       <c r="M24">
-        <v>0.9209238634439679</v>
+        <v>1.003848495386098</v>
       </c>
       <c r="N24">
-        <v>0.9936259534317049</v>
+        <v>1.00759688431099</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9512042685019196</v>
+        <v>1.006165258446153</v>
       </c>
       <c r="D25">
-        <v>0.9637218418866971</v>
+        <v>1.009078487903274</v>
       </c>
       <c r="E25">
-        <v>0.9646514993277202</v>
+        <v>1.009034163554825</v>
       </c>
       <c r="F25">
-        <v>0.9214224570574217</v>
+        <v>1.003457663494368</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.97749328909329</v>
+        <v>1.011942574428572</v>
       </c>
       <c r="K25">
-        <v>0.9769107077386358</v>
+        <v>1.01221743333349</v>
       </c>
       <c r="L25">
-        <v>0.9778245158113007</v>
+        <v>1.012173256498776</v>
       </c>
       <c r="M25">
-        <v>0.935376765827993</v>
+        <v>1.006615429486483</v>
       </c>
       <c r="N25">
-        <v>0.9960382151706962</v>
+        <v>1.008058185146165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_109/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_109/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007741359813101</v>
+        <v>0.9591906522027329</v>
       </c>
       <c r="D2">
-        <v>1.010450795242707</v>
+        <v>0.9702969901170019</v>
       </c>
       <c r="E2">
-        <v>1.010378232713478</v>
+        <v>0.9710734950917373</v>
       </c>
       <c r="F2">
-        <v>1.005934661921953</v>
+        <v>0.9337421869831369</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.013011236820697</v>
+        <v>0.9826644575717464</v>
       </c>
       <c r="K2">
-        <v>1.013320948185163</v>
+        <v>0.9821862544187517</v>
       </c>
       <c r="L2">
-        <v>1.013248605009605</v>
+        <v>0.9829510940164057</v>
       </c>
       <c r="M2">
-        <v>1.008818532729725</v>
+        <v>0.9462088703044141</v>
       </c>
       <c r="N2">
-        <v>1.008424484006033</v>
+        <v>0.9978593479126052</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008885489017892</v>
+        <v>0.9647732099829415</v>
       </c>
       <c r="D3">
-        <v>1.011447612279555</v>
+        <v>0.9749073082266165</v>
       </c>
       <c r="E3">
-        <v>1.011354631784088</v>
+        <v>0.9755785099217945</v>
       </c>
       <c r="F3">
-        <v>1.007732031210571</v>
+        <v>0.9422973345798212</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.013785937500267</v>
+        <v>0.986272537675746</v>
       </c>
       <c r="K3">
-        <v>1.014121302574718</v>
+        <v>0.9858716522302144</v>
       </c>
       <c r="L3">
-        <v>1.014028582638701</v>
+        <v>0.9865337083722436</v>
       </c>
       <c r="M3">
-        <v>1.010416174298673</v>
+        <v>0.95372595120004</v>
       </c>
       <c r="N3">
-        <v>1.008689512514675</v>
+        <v>0.9991280977313313</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00962571700567</v>
+        <v>0.9682935633621182</v>
       </c>
       <c r="D4">
-        <v>1.012092817872978</v>
+        <v>0.9778207217452147</v>
       </c>
       <c r="E4">
-        <v>1.01198666391706</v>
+        <v>0.9784262531129018</v>
       </c>
       <c r="F4">
-        <v>1.008894589360257</v>
+        <v>0.9476706989218583</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.014286659102448</v>
+        <v>0.988544631384015</v>
       </c>
       <c r="K4">
-        <v>1.014638783828894</v>
+        <v>0.9881944128956179</v>
       </c>
       <c r="L4">
-        <v>1.014532912232917</v>
+        <v>0.9887922220945574</v>
       </c>
       <c r="M4">
-        <v>1.011449090507858</v>
+        <v>0.9584446052510702</v>
       </c>
       <c r="N4">
-        <v>1.008860573501175</v>
+        <v>0.9999260427328642</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009936887534993</v>
+        <v>0.9697526145388436</v>
       </c>
       <c r="D5">
-        <v>1.012364111420605</v>
+        <v>0.9790296364491023</v>
       </c>
       <c r="E5">
-        <v>1.012252428344766</v>
+        <v>0.9796081156723123</v>
       </c>
       <c r="F5">
-        <v>1.00938322889415</v>
+        <v>0.9498932037126741</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.014497029797006</v>
+        <v>0.989485553779227</v>
       </c>
       <c r="K5">
-        <v>1.014856238440872</v>
+        <v>0.9891567792080801</v>
       </c>
       <c r="L5">
-        <v>1.014744845756573</v>
+        <v>0.9897280894406421</v>
       </c>
       <c r="M5">
-        <v>1.011883130412384</v>
+        <v>0.9603956076270121</v>
       </c>
       <c r="N5">
-        <v>1.008932384960895</v>
+        <v>1.000256225683113</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009989133262976</v>
+        <v>0.969996400307555</v>
       </c>
       <c r="D6">
-        <v>1.012409665728678</v>
+        <v>0.9792317097540024</v>
       </c>
       <c r="E6">
-        <v>1.012297054812176</v>
+        <v>0.9798056784197603</v>
       </c>
       <c r="F6">
-        <v>1.009465268058942</v>
+        <v>0.9502643004811928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.014532344233848</v>
+        <v>0.9896427219967697</v>
       </c>
       <c r="K6">
-        <v>1.014892744532218</v>
+        <v>0.989317556130037</v>
       </c>
       <c r="L6">
-        <v>1.014780425290233</v>
+        <v>0.9898844461547486</v>
       </c>
       <c r="M6">
-        <v>1.011955996266641</v>
+        <v>0.9607213281430711</v>
       </c>
       <c r="N6">
-        <v>1.008944436417451</v>
+        <v>1.000311362217004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009629874961979</v>
+        <v>0.9683131400203764</v>
       </c>
       <c r="D7">
-        <v>1.012096442715623</v>
+        <v>0.9778369366991764</v>
       </c>
       <c r="E7">
-        <v>1.011990214844175</v>
+        <v>0.9784421044556993</v>
       </c>
       <c r="F7">
-        <v>1.008901118965581</v>
+        <v>0.9477005363558684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.014289470605075</v>
+        <v>0.9885572591850451</v>
       </c>
       <c r="K7">
-        <v>1.014641689837406</v>
+        <v>0.9882073266783611</v>
       </c>
       <c r="L7">
-        <v>1.014535744437633</v>
+        <v>0.9888047798299052</v>
       </c>
       <c r="M7">
-        <v>1.011454890937522</v>
+        <v>0.9584708005811398</v>
       </c>
       <c r="N7">
-        <v>1.008861533451982</v>
+        <v>0.9999304750718271</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008128045961338</v>
+        <v>0.9610970313541307</v>
       </c>
       <c r="D8">
-        <v>1.010787634154178</v>
+        <v>0.9718700282898157</v>
       </c>
       <c r="E8">
-        <v>1.010708163237113</v>
+        <v>0.9726104123805591</v>
       </c>
       <c r="F8">
-        <v>1.006542192680029</v>
+        <v>0.9366685897373347</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.013273167878998</v>
+        <v>0.9838972303049233</v>
       </c>
       <c r="K8">
-        <v>1.013591515823637</v>
+        <v>0.9834450192612334</v>
       </c>
       <c r="L8">
-        <v>1.013512279211208</v>
+        <v>0.9841746352028696</v>
       </c>
       <c r="M8">
-        <v>1.009358647616567</v>
+        <v>0.9487807273933082</v>
       </c>
       <c r="N8">
-        <v>1.008514140949303</v>
+        <v>0.9982930439111812</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005480745576251</v>
+        <v>0.9476227641397501</v>
       </c>
       <c r="D9">
-        <v>1.008482791098277</v>
+        <v>0.9607808404929783</v>
       </c>
       <c r="E9">
-        <v>1.00845077064082</v>
+        <v>0.9617801502694322</v>
       </c>
       <c r="F9">
-        <v>1.00238148300482</v>
+        <v>0.9158635704342418</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.01147793231855</v>
+        <v>0.9751710508620471</v>
       </c>
       <c r="K9">
-        <v>1.011737826317246</v>
+        <v>0.9745439724687794</v>
       </c>
       <c r="L9">
-        <v>1.011705916681197</v>
+        <v>0.9755253277583187</v>
       </c>
       <c r="M9">
-        <v>1.005657775411462</v>
+        <v>0.9304870844860023</v>
       </c>
       <c r="N9">
-        <v>1.007898677791794</v>
+        <v>0.9952195889190871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003715114672957</v>
+        <v>0.9380450412811543</v>
       </c>
       <c r="D10">
-        <v>1.006947094622776</v>
+        <v>0.9529387191904887</v>
       </c>
       <c r="E10">
-        <v>1.006946921126703</v>
+        <v>0.9541273115090385</v>
       </c>
       <c r="F10">
-        <v>0.9996043609359114</v>
+        <v>0.9008814271599727</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.01027805046223</v>
+        <v>0.9689522883560938</v>
       </c>
       <c r="K10">
-        <v>1.010499811863725</v>
+        <v>0.9682130496880881</v>
       </c>
       <c r="L10">
-        <v>1.010499639027784</v>
+        <v>0.9693773338366429</v>
       </c>
       <c r="M10">
-        <v>1.003185244096014</v>
+        <v>0.9173049056248963</v>
       </c>
       <c r="N10">
-        <v>1.007486114562519</v>
+        <v>0.9930257342148961</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002950357702456</v>
+        <v>0.9337347056702925</v>
       </c>
       <c r="D11">
-        <v>1.006282302090868</v>
+        <v>0.9494201247320923</v>
       </c>
       <c r="E11">
-        <v>1.006295971652534</v>
+        <v>0.9506953647809648</v>
       </c>
       <c r="F11">
-        <v>0.998400907678803</v>
+        <v>0.8940782112695229</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.009757737288748</v>
+        <v>0.9661499093629644</v>
       </c>
       <c r="K11">
-        <v>1.009963187190324</v>
+        <v>0.9653633860635987</v>
       </c>
       <c r="L11">
-        <v>1.009976802697977</v>
+        <v>0.9666111033978479</v>
       </c>
       <c r="M11">
-        <v>1.002113232761298</v>
+        <v>0.9113182577690504</v>
       </c>
       <c r="N11">
-        <v>1.007306929117971</v>
+        <v>0.992036611816453</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002666255427317</v>
+        <v>0.9321069989904116</v>
       </c>
       <c r="D12">
-        <v>1.006035392536111</v>
+        <v>0.9480931029124349</v>
       </c>
       <c r="E12">
-        <v>1.006054212209226</v>
+        <v>0.9494013049040503</v>
       </c>
       <c r="F12">
-        <v>0.9979537378880736</v>
+        <v>0.8914985062753621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.009564353877718</v>
+        <v>0.965091097664311</v>
       </c>
       <c r="K12">
-        <v>1.0097637751944</v>
+        <v>0.9642872281257419</v>
       </c>
       <c r="L12">
-        <v>1.009782519401926</v>
+        <v>0.965566634525309</v>
       </c>
       <c r="M12">
-        <v>1.001714820554971</v>
+        <v>0.9090481965909689</v>
       </c>
       <c r="N12">
-        <v>1.007240289530172</v>
+        <v>0.9916628521051915</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002727198080188</v>
+        <v>0.9324573913083097</v>
       </c>
       <c r="D13">
-        <v>1.006088354423225</v>
+        <v>0.94837868911409</v>
       </c>
       <c r="E13">
-        <v>1.006106069006355</v>
+        <v>0.9496797842081633</v>
       </c>
       <c r="F13">
-        <v>0.9980496644779331</v>
+        <v>0.8920543387149336</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.009605840558904</v>
+        <v>0.9653190503606137</v>
       </c>
       <c r="K13">
-        <v>1.009806553656861</v>
+        <v>0.964518891360616</v>
       </c>
       <c r="L13">
-        <v>1.009824197417062</v>
+        <v>0.9657914676300567</v>
       </c>
       <c r="M13">
-        <v>1.0018002914309</v>
+        <v>0.909537309375972</v>
       </c>
       <c r="N13">
-        <v>1.007254587674138</v>
+        <v>0.9917433206647623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002926874503961</v>
+        <v>0.9336007160927925</v>
       </c>
       <c r="D14">
-        <v>1.006261891993281</v>
+        <v>0.949310851828282</v>
       </c>
       <c r="E14">
-        <v>1.006275987096645</v>
+        <v>0.9505888002105988</v>
       </c>
       <c r="F14">
-        <v>0.9983639476905006</v>
+        <v>0.8938660799588464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.009741754533931</v>
+        <v>0.9660627613091122</v>
       </c>
       <c r="K14">
-        <v>1.009946705493141</v>
+        <v>0.9652747995688183</v>
       </c>
       <c r="L14">
-        <v>1.009960744795007</v>
+        <v>0.9665251216867132</v>
       </c>
       <c r="M14">
-        <v>1.002080304423726</v>
+        <v>0.9111315877288414</v>
       </c>
       <c r="N14">
-        <v>1.007301422347768</v>
+        <v>0.992005849314317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003049896670781</v>
+        <v>0.9343015551791861</v>
       </c>
       <c r="D15">
-        <v>1.006368817331356</v>
+        <v>0.9498824789238465</v>
       </c>
       <c r="E15">
-        <v>1.006380683444271</v>
+        <v>0.9511462711829582</v>
       </c>
       <c r="F15">
-        <v>0.998557567219246</v>
+        <v>0.8949752018992764</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.00982548018888</v>
+        <v>0.9665185710150049</v>
       </c>
       <c r="K15">
-        <v>1.010033046245149</v>
+        <v>0.9657381540387853</v>
       </c>
       <c r="L15">
-        <v>1.010044865666519</v>
+        <v>0.9669748592220763</v>
       </c>
       <c r="M15">
-        <v>1.002252800264956</v>
+        <v>0.9121075874240923</v>
       </c>
       <c r="N15">
-        <v>1.007330267834747</v>
+        <v>0.9921667445836472</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003765864002442</v>
+        <v>0.9383274898466529</v>
       </c>
       <c r="D16">
-        <v>1.006991218197981</v>
+        <v>0.953169515636895</v>
       </c>
       <c r="E16">
-        <v>1.006990127120171</v>
+        <v>0.9543524621827547</v>
       </c>
       <c r="F16">
-        <v>0.9996842092912569</v>
+        <v>0.9013258502664987</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.010312565802187</v>
+        <v>0.9691358468565366</v>
       </c>
       <c r="K16">
-        <v>1.010535413975112</v>
+        <v>0.9683997753280928</v>
       </c>
       <c r="L16">
-        <v>1.010534327037911</v>
+        <v>0.9695586165207166</v>
       </c>
       <c r="M16">
-        <v>1.003256359774522</v>
+        <v>0.9176959802391591</v>
       </c>
       <c r="N16">
-        <v>1.00749799502394</v>
+        <v>0.9930905149176595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004214908215161</v>
+        <v>0.9408077443701656</v>
       </c>
       <c r="D17">
-        <v>1.007381678918184</v>
+        <v>0.9551974167662669</v>
       </c>
       <c r="E17">
-        <v>1.007372474500553</v>
+        <v>0.9563309542425555</v>
       </c>
       <c r="F17">
-        <v>1.00039066149902</v>
+        <v>0.9052214230511011</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.01061789761435</v>
+        <v>0.9707473041151861</v>
       </c>
       <c r="K17">
-        <v>1.01085038555817</v>
+        <v>0.9700394085164713</v>
       </c>
       <c r="L17">
-        <v>1.010841215264662</v>
+        <v>0.9711505808118369</v>
       </c>
       <c r="M17">
-        <v>1.003885486680965</v>
+        <v>0.9211238548506744</v>
       </c>
       <c r="N17">
-        <v>1.007603060116528</v>
+        <v>0.9936591708068371</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004476806420504</v>
+        <v>0.9422388547116551</v>
       </c>
       <c r="D18">
-        <v>1.007609445004532</v>
+        <v>0.9563685162248613</v>
       </c>
       <c r="E18">
-        <v>1.007595513323928</v>
+        <v>0.9574736810444089</v>
       </c>
       <c r="F18">
-        <v>1.000802633153154</v>
+        <v>0.907463561800489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.010795919667981</v>
+        <v>0.9716767682885018</v>
       </c>
       <c r="K18">
-        <v>1.011034049629468</v>
+        <v>0.9709854289695614</v>
       </c>
       <c r="L18">
-        <v>1.011020168887485</v>
+        <v>0.9720691996020923</v>
       </c>
       <c r="M18">
-        <v>1.004252312479569</v>
+        <v>0.9230967231808518</v>
       </c>
       <c r="N18">
-        <v>1.007664290470718</v>
+        <v>0.9939871137268479</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004566103363046</v>
+        <v>0.9427242447311193</v>
       </c>
       <c r="D19">
-        <v>1.007687110294921</v>
+        <v>0.9567658846676909</v>
       </c>
       <c r="E19">
-        <v>1.007671567600544</v>
+        <v>0.9578614488775479</v>
       </c>
       <c r="F19">
-        <v>1.000943089951269</v>
+        <v>0.9082231172025762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.01085660830383</v>
+        <v>0.9719919554866093</v>
       </c>
       <c r="K19">
-        <v>1.011096665316714</v>
+        <v>0.97130628140029</v>
       </c>
       <c r="L19">
-        <v>1.011081179180929</v>
+        <v>0.972380775300588</v>
       </c>
       <c r="M19">
-        <v>1.004377368315579</v>
+        <v>0.9237650422224871</v>
       </c>
       <c r="N19">
-        <v>1.007685159579239</v>
+        <v>0.9940983120132464</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004166732289501</v>
+        <v>0.9405432627534583</v>
       </c>
       <c r="D20">
-        <v>1.007339784441221</v>
+        <v>0.9549810674840639</v>
       </c>
       <c r="E20">
-        <v>1.007331449978018</v>
+        <v>0.956119859374279</v>
       </c>
       <c r="F20">
-        <v>1.000314875259818</v>
+        <v>0.904806611945201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.010585145950745</v>
+        <v>0.9705755027810988</v>
       </c>
       <c r="K20">
-        <v>1.01081659764068</v>
+        <v>0.9698645714154426</v>
       </c>
       <c r="L20">
-        <v>1.010808294154659</v>
+        <v>0.9709808160364933</v>
       </c>
       <c r="M20">
-        <v>1.003818001184111</v>
+        <v>0.920758853170727</v>
       </c>
       <c r="N20">
-        <v>1.007591793044342</v>
+        <v>0.9935985499302109</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002868075835822</v>
+        <v>0.9332647898930987</v>
       </c>
       <c r="D21">
-        <v>1.006210788859491</v>
+        <v>0.94903692068371</v>
       </c>
       <c r="E21">
-        <v>1.00622594958189</v>
+        <v>0.9503216631066128</v>
       </c>
       <c r="F21">
-        <v>0.9982714034586954</v>
+        <v>0.8933340677721466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.009701734474589</v>
+        <v>0.9658442629250812</v>
       </c>
       <c r="K21">
-        <v>1.009905436653439</v>
+        <v>0.9650527031713532</v>
       </c>
       <c r="L21">
-        <v>1.009920537181223</v>
+        <v>0.9663095587505618</v>
       </c>
       <c r="M21">
-        <v>1.001997853721787</v>
+        <v>0.9106634314589177</v>
       </c>
       <c r="N21">
-        <v>1.007287632975731</v>
+        <v>0.9919287207034911</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002051340423527</v>
+        <v>0.9285330299963142</v>
       </c>
       <c r="D22">
-        <v>1.005501082244604</v>
+        <v>0.9451825999483647</v>
       </c>
       <c r="E22">
-        <v>1.00553106277097</v>
+        <v>0.9465636474023933</v>
       </c>
       <c r="F22">
-        <v>0.9969856964212369</v>
+        <v>0.8858127836509363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.009145626728355</v>
+        <v>0.9627652351970337</v>
       </c>
       <c r="K22">
-        <v>1.0093320566831</v>
+        <v>0.9619242549243902</v>
       </c>
       <c r="L22">
-        <v>1.009361913377761</v>
+        <v>0.963273596536284</v>
       </c>
       <c r="M22">
-        <v>1.0008521796193</v>
+        <v>0.9040451121348601</v>
       </c>
       <c r="N22">
-        <v>1.007095919966662</v>
+        <v>0.9908417812515999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002484329161242</v>
+        <v>0.9310569554725647</v>
       </c>
       <c r="D23">
-        <v>1.005877298825826</v>
+        <v>0.9472375253806946</v>
       </c>
       <c r="E23">
-        <v>1.00589941852797</v>
+        <v>0.9485670622316219</v>
       </c>
       <c r="F23">
-        <v>0.9976673630241029</v>
+        <v>0.889831121856195</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.009440494421733</v>
+        <v>0.964407895818529</v>
       </c>
       <c r="K23">
-        <v>1.009636064068379</v>
+        <v>0.9635929839387739</v>
       </c>
       <c r="L23">
-        <v>1.009658094284072</v>
+        <v>0.9648928866843633</v>
       </c>
       <c r="M23">
-        <v>1.001459647627042</v>
+        <v>0.9075809699295977</v>
       </c>
       <c r="N23">
-        <v>1.007197595927036</v>
+        <v>0.9914216742640556</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004188500983481</v>
+        <v>0.9406628186002365</v>
       </c>
       <c r="D24">
-        <v>1.00735871469962</v>
+        <v>0.9550788625777389</v>
       </c>
       <c r="E24">
-        <v>1.007349987125685</v>
+        <v>0.9562152788490851</v>
       </c>
       <c r="F24">
-        <v>1.000349120075986</v>
+        <v>0.9049941398075784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.010599945242685</v>
+        <v>0.970653164664827</v>
       </c>
       <c r="K24">
-        <v>1.010831865111529</v>
+        <v>0.9699436046572552</v>
       </c>
       <c r="L24">
-        <v>1.010823169938823</v>
+        <v>0.9710575560726156</v>
       </c>
       <c r="M24">
-        <v>1.003848495386098</v>
+        <v>0.9209238634439679</v>
       </c>
       <c r="N24">
-        <v>1.00759688431099</v>
+        <v>0.9936259534317048</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006165258446153</v>
+        <v>0.95120426850192</v>
       </c>
       <c r="D25">
-        <v>1.009078487903274</v>
+        <v>0.9637218418866972</v>
       </c>
       <c r="E25">
-        <v>1.009034163554825</v>
+        <v>0.9646514993277202</v>
       </c>
       <c r="F25">
-        <v>1.003457663494368</v>
+        <v>0.9214224570574217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.011942574428572</v>
+        <v>0.9774932890932901</v>
       </c>
       <c r="K25">
-        <v>1.01221743333349</v>
+        <v>0.9769107077386358</v>
       </c>
       <c r="L25">
-        <v>1.012173256498776</v>
+        <v>0.9778245158113007</v>
       </c>
       <c r="M25">
-        <v>1.006615429486483</v>
+        <v>0.9353767658279929</v>
       </c>
       <c r="N25">
-        <v>1.008058185146165</v>
+        <v>0.9960382151706962</v>
       </c>
     </row>
   </sheetData>
